--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Terry\Documents\workspace\ubilab-ws21\puzzle-5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5628965-AC50-4A13-B97D-8C52891A8DA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4EC894B-563A-4B71-BBE9-951659665922}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="840" yWindow="-108" windowWidth="22308" windowHeight="13176" xr2:uid="{60EF698B-3BE2-4FE3-89A4-05C34434D535}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="90">
   <si>
     <t>Component</t>
   </si>
@@ -261,13 +261,49 @@
     <t>SHOU HAN TYPE-C16PIN</t>
   </si>
   <si>
-    <t>USB-Type-C slot for charging and data</t>
-  </si>
-  <si>
     <t>TE 2305018-2</t>
   </si>
   <si>
     <t>Alternative</t>
+  </si>
+  <si>
+    <t>Battery Box</t>
+  </si>
+  <si>
+    <t>Box</t>
+  </si>
+  <si>
+    <t>ESP32</t>
+  </si>
+  <si>
+    <t>~30x20cm</t>
+  </si>
+  <si>
+    <t>USB cable</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>KY-011 Bi-color LED module</t>
+  </si>
+  <si>
+    <t>Electic Box</t>
+  </si>
+  <si>
+    <t>USB to TTL</t>
+  </si>
+  <si>
+    <t>CP2120 USB - TTL module</t>
+  </si>
+  <si>
+    <t>Prefer a module, not a bare chip</t>
+  </si>
+  <si>
+    <t>USB-Type-C slot for power and data</t>
+  </si>
+  <si>
+    <t>Optional</t>
   </si>
 </sst>
 </file>
@@ -453,7 +489,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -496,6 +532,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -508,15 +556,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
@@ -529,6 +568,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -846,576 +887,775 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424A2A21-17D1-4EC4-A8B0-61CD809494C3}">
-  <dimension ref="A1:G33"/>
+  <dimension ref="B2:H48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.88671875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="41.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.33203125" customWidth="1"/>
-    <col min="7" max="7" width="32" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.33203125" customWidth="1"/>
+    <col min="8" max="8" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="24" t="s">
+    <row r="2" spans="2:8">
+      <c r="B2" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="2" t="s">
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="23"/>
+    </row>
+    <row r="3" spans="2:8">
+      <c r="B3" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="C3" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="D3" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G3" s="33" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H3" s="33" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="2" t="s">
+    <row r="4" spans="2:8">
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="2">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="29" t="s">
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="2:8">
+      <c r="B5" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="29" t="s">
+      <c r="C5" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="29" t="s">
+      <c r="D5" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="D4" s="27">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="E5" s="28">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="G5" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="G4" s="29" t="s">
+      <c r="H5" s="30" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="30"/>
-      <c r="B5" s="30"/>
-      <c r="C5" s="30"/>
-      <c r="D5" s="28"/>
-      <c r="E5" s="6" t="s">
+    <row r="6" spans="2:8">
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="30"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="18" t="s">
+      <c r="G6" s="6"/>
+      <c r="H6" s="31"/>
+    </row>
+    <row r="7" spans="2:8">
+      <c r="B7" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C7" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="18"/>
-      <c r="D6" s="19">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="18"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="18"/>
-      <c r="B7" s="18" t="s">
+      <c r="D7" s="18"/>
+      <c r="E7" s="19">
+        <v>1</v>
+      </c>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="18" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8">
+      <c r="B8" s="18"/>
+      <c r="C8" s="18" t="s">
         <v>66</v>
       </c>
-      <c r="C7" s="18"/>
-      <c r="D7" s="19">
-        <v>1</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:7" ht="43.2">
-      <c r="A8" s="18" t="s">
+      <c r="D8" s="18"/>
+      <c r="E8" s="19">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8">
+      <c r="B9" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="C9" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C8" s="18"/>
-      <c r="D8" s="19">
-        <v>1</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="18" t="s">
+      <c r="D9" s="18"/>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="18" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="2" t="s">
+    <row r="10" spans="2:8">
+      <c r="B10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="2">
-        <v>1</v>
-      </c>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="E10" s="2">
+        <v>1</v>
+      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="2:8">
+      <c r="B11" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="C11" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="27">
-        <v>1</v>
-      </c>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2" t="s">
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8">
+      <c r="B12" s="4"/>
+      <c r="C12" s="5" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="4"/>
-      <c r="B11" s="5" t="s">
+      <c r="D12" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="29"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H12" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C11" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D11" s="28"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="6" t="s">
+    </row>
+    <row r="13" spans="2:8">
+      <c r="B13" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="2">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D12" s="2">
-        <v>1</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G12" s="2" t="s">
+      <c r="H13" s="2" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="4" t="s">
+    <row r="14" spans="2:8">
+      <c r="B14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="C14" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="2">
-        <v>1</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="2"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="4" t="s">
+      <c r="D14" s="3"/>
+      <c r="E14" s="2">
+        <v>1</v>
+      </c>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="2:8">
+      <c r="B15" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="C15" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="2">
+      <c r="D15" s="3"/>
+      <c r="E15" s="2">
         <v>2</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="2" t="s">
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="2" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="4"/>
-      <c r="B15" s="5" t="s">
+    <row r="16" spans="2:8">
+      <c r="B16" s="4"/>
+      <c r="C16" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="2">
-        <v>1</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="2" t="s">
+      <c r="D16" s="3"/>
+      <c r="E16" s="2">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="2" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="4" t="s">
+    <row r="17" spans="2:8">
+      <c r="B17" s="4" t="s">
         <v>43</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="C17" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D16" s="2">
-        <v>1</v>
-      </c>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="2" t="s">
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="21" t="s">
+    <row r="18" spans="2:8">
+      <c r="B18" s="25" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="C18" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="D18" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="2">
-        <v>1</v>
-      </c>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="22"/>
-      <c r="B18" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D18" s="7">
-        <v>2</v>
-      </c>
-      <c r="E18" s="2"/>
+      <c r="E18" s="2">
+        <v>1</v>
+      </c>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="22"/>
-      <c r="B19" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C19" s="12" t="s">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="2:8">
+      <c r="B19" s="26"/>
+      <c r="C19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D19" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E19" s="2"/>
+      <c r="E19" s="7">
+        <v>2</v>
+      </c>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="22"/>
-      <c r="B20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C20" s="12" t="s">
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="2:8">
+      <c r="B20" s="26"/>
+      <c r="C20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D20" s="7">
-        <v>1</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="E20" s="8" t="s">
+        <v>32</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="23"/>
-      <c r="B21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C21" s="12" t="s">
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="2:8">
+      <c r="B21" s="26"/>
+      <c r="C21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D21" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D21" s="7">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="E21" s="7">
+        <v>1</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C22" s="12" t="s">
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="2:8">
+      <c r="B22" s="27"/>
+      <c r="C22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D22" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="7">
-        <v>1</v>
-      </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="7">
+        <v>2</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="22"/>
-      <c r="B23" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C23" s="12" t="s">
+      <c r="H22" s="2"/>
+    </row>
+    <row r="23" spans="2:8">
+      <c r="B23" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D23" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D23" s="7">
-        <v>1</v>
-      </c>
-      <c r="E23" s="2"/>
+      <c r="E23" s="7">
+        <v>1</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="22"/>
-      <c r="B24" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C24" s="12" t="s">
+      <c r="H23" s="2"/>
+    </row>
+    <row r="24" spans="2:8">
+      <c r="B24" s="26"/>
+      <c r="C24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D24" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D24" s="7">
-        <v>6</v>
-      </c>
-      <c r="E24" s="2"/>
+      <c r="E24" s="7">
+        <v>1</v>
+      </c>
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="23"/>
-      <c r="B25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" s="12" t="s">
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="2:8">
+      <c r="B25" s="26"/>
+      <c r="C25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D25" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="D25" s="7">
-        <v>2</v>
-      </c>
-      <c r="E25" s="2"/>
+      <c r="E25" s="7">
+        <v>6</v>
+      </c>
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B26" s="9" t="s">
-        <v>42</v>
-      </c>
-      <c r="C26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="D26" s="11">
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="2:8">
+      <c r="B26" s="27"/>
+      <c r="C26" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D26" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="7">
         <v>2</v>
       </c>
-      <c r="E26" s="2"/>
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="2"/>
-      <c r="B27" s="17" t="s">
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="2:8">
+      <c r="B27" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E27" s="11">
+        <v>2</v>
+      </c>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+    </row>
+    <row r="28" spans="2:8">
+      <c r="B28" s="2"/>
+      <c r="C28" s="17" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="11">
+      <c r="D28" s="10"/>
+      <c r="E28" s="11">
         <v>2</v>
       </c>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2" t="s">
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="13"/>
-      <c r="B28" s="14"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="13"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" s="20" t="s">
+    <row r="29" spans="2:8">
+      <c r="B29" s="13"/>
+      <c r="C29" s="14"/>
+      <c r="D29" s="15"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="13"/>
+      <c r="G29" s="13"/>
+      <c r="H29" s="13"/>
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="24" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="20"/>
-      <c r="D30" s="20"/>
-      <c r="E30" s="20"/>
-      <c r="F30" s="20"/>
-      <c r="G30" s="20"/>
-    </row>
-    <row r="31" spans="1:7">
-      <c r="A31" s="2" t="s">
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+    </row>
+    <row r="32" spans="2:8">
+      <c r="B32" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E32" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8">
+      <c r="B33" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="C33" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7">
-      <c r="A32" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="2">
-        <v>1</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7">
-      <c r="A33" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>54</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E33" s="2"/>
+      <c r="E33" s="2">
+        <v>2</v>
+      </c>
       <c r="F33" s="2"/>
-      <c r="G33" s="2" t="s">
+      <c r="G33" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8">
+      <c r="B34" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="2">
+        <v>1</v>
+      </c>
+      <c r="F34" s="2"/>
+      <c r="G34" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8">
+      <c r="B35" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="F35" s="2"/>
+      <c r="G35" s="2"/>
+      <c r="H35" s="2" t="s">
         <v>59</v>
       </c>
     </row>
+    <row r="37" spans="2:8">
+      <c r="B37" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="C37" s="22"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="22"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="22"/>
+      <c r="H37" s="23"/>
+    </row>
+    <row r="38" spans="2:8">
+      <c r="B38" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D38" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E38" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8">
+      <c r="B39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2">
+        <v>2</v>
+      </c>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8">
+      <c r="B40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2">
+        <v>1</v>
+      </c>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+    </row>
+    <row r="41" spans="2:8">
+      <c r="B41" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2">
+        <v>1</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2">
+        <v>1</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+    </row>
+    <row r="44" spans="2:8">
+      <c r="B44" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+    </row>
+    <row r="45" spans="2:8">
+      <c r="B45" s="33" t="s">
+        <v>7</v>
+      </c>
+      <c r="C45" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="D45" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E45" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="F45" s="33" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="33" t="s">
+        <v>31</v>
+      </c>
+      <c r="H45" s="33" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8">
+      <c r="B46" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2"/>
+      <c r="G46" s="2"/>
+      <c r="H46" s="2"/>
+    </row>
+    <row r="47" spans="2:8">
+      <c r="B47" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2"/>
+      <c r="G47" s="2"/>
+      <c r="H47" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="A17:A21"/>
-    <mergeCell ref="A22:A25"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="C4:C5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="D10:D11"/>
+  <mergeCells count="12">
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="B2:H2"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="B37:H37"/>
+    <mergeCell ref="B44:H44"/>
+    <mergeCell ref="B31:H31"/>
+    <mergeCell ref="B18:B22"/>
+    <mergeCell ref="B23:B26"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E12" r:id="rId1" xr:uid="{D9EB0554-D05F-47B8-BE90-6EAE6618BD83}"/>
-    <hyperlink ref="F12" r:id="rId2" display="link" xr:uid="{814C1A9E-3089-4F0D-BD89-4785B9F23B0B}"/>
-    <hyperlink ref="F4" r:id="rId3" display="link" xr:uid="{E98F50A9-015F-4B81-B011-B3D4A4C16922}"/>
-    <hyperlink ref="E4" r:id="rId4" xr:uid="{C8783B96-295D-4F96-8A77-BEB8954E67A7}"/>
-    <hyperlink ref="E5" r:id="rId5" xr:uid="{CC863597-26C1-419A-BC58-106B11DC762A}"/>
-    <hyperlink ref="F31" r:id="rId6" xr:uid="{C498FCA6-FF17-425F-8925-07D205239AF1}"/>
-    <hyperlink ref="F32" r:id="rId7" xr:uid="{744EBFEE-9027-4505-B8E7-08968ED4014E}"/>
-    <hyperlink ref="F11" r:id="rId8" xr:uid="{6D221D74-45BB-41E1-B2CC-752057FD5A11}"/>
+    <hyperlink ref="F13" r:id="rId1" xr:uid="{D9EB0554-D05F-47B8-BE90-6EAE6618BD83}"/>
+    <hyperlink ref="G13" r:id="rId2" display="link" xr:uid="{814C1A9E-3089-4F0D-BD89-4785B9F23B0B}"/>
+    <hyperlink ref="G4" r:id="rId3" display="link" xr:uid="{E98F50A9-015F-4B81-B011-B3D4A4C16922}"/>
+    <hyperlink ref="F5" r:id="rId4" xr:uid="{C8783B96-295D-4F96-8A77-BEB8954E67A7}"/>
+    <hyperlink ref="F6" r:id="rId5" xr:uid="{CC863597-26C1-419A-BC58-106B11DC762A}"/>
+    <hyperlink ref="G33" r:id="rId6" xr:uid="{C498FCA6-FF17-425F-8925-07D205239AF1}"/>
+    <hyperlink ref="G34" r:id="rId7" xr:uid="{744EBFEE-9027-4505-B8E7-08968ED4014E}"/>
+    <hyperlink ref="G12" r:id="rId8" xr:uid="{6D221D74-45BB-41E1-B2CC-752057FD5A11}"/>
+    <hyperlink ref="G5" r:id="rId9" xr:uid="{F82D1D29-45C3-4B08-8479-EBCD08FCA73B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
   <ignoredErrors>
-    <ignoredError sqref="C9" numberStoredAsText="1"/>
+    <ignoredError sqref="D10" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>